--- a/data/Wedding Dreams.xlsx
+++ b/data/Wedding Dreams.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\View_Finders\Visualizer\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
     <sheet name="Geography" sheetId="2" r:id="rId2"/>
     <sheet name="view" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="804">
   <si>
     <t>ageGroup</t>
   </si>
@@ -2422,13 +2427,19 @@
   </si>
   <si>
     <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2465,6 +2476,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2511,7 +2530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2543,9 +2562,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2577,6 +2597,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2752,14 +2773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2781,7 +2802,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2792,7 +2813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2803,7 +2824,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2835,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2846,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2836,7 +2857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2847,7 +2868,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2855,10 +2876,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2890,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +2901,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2902,7 +2923,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2913,7 +2934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2930,14 +2951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2953,8 +2976,14 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2970,8 +2999,14 @@
       <c r="E2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="G2">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2985,10 +3020,16 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F3">
+        <v>40.769627200000002</v>
+      </c>
+      <c r="G3">
+        <v>44.673664600000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3004,8 +3045,14 @@
       <c r="E4">
         <v>25.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>-34.996496299999997</v>
+      </c>
+      <c r="G4">
+        <v>-64.967281700000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3021,8 +3068,14 @@
       <c r="E5">
         <v>18.34</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>47.593969999999999</v>
+      </c>
+      <c r="G5">
+        <v>14.124560000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3038,8 +3091,14 @@
       <c r="E6">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="G6">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3055,8 +3114,14 @@
       <c r="E7">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>40.393629400000002</v>
+      </c>
+      <c r="G7">
+        <v>47.787250800000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3072,8 +3137,14 @@
       <c r="E8">
         <v>21.42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>24.4769288</v>
+      </c>
+      <c r="G8">
+        <v>90.293441299999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3089,8 +3160,14 @@
       <c r="E9">
         <v>35.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>50.6402809</v>
+      </c>
+      <c r="G9">
+        <v>4.6667145000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3106,8 +3183,14 @@
       <c r="E10">
         <v>29.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>44.305347599999997</v>
+      </c>
+      <c r="G10">
+        <v>17.596146699999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3123,8 +3206,14 @@
       <c r="E11">
         <v>20.57</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>4.4137155000000003</v>
+      </c>
+      <c r="G11">
+        <v>114.5653908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3140,8 +3229,14 @@
       <c r="E12">
         <v>23.59</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>27.549510999999999</v>
+      </c>
+      <c r="G12">
+        <v>90.511927299999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3157,8 +3252,14 @@
       <c r="E13">
         <v>34.29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>61.066692199999999</v>
+      </c>
+      <c r="G13">
+        <v>-107.99170700000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3174,8 +3275,14 @@
       <c r="E14">
         <v>51.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>46.798562400000002</v>
+      </c>
+      <c r="G14">
+        <v>8.2319735999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3189,10 +3296,16 @@
         <v>136</v>
       </c>
       <c r="E15">
-        <v>32.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="F15">
+        <v>34.982301800000002</v>
+      </c>
+      <c r="G15">
+        <v>33.145128499999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3208,8 +3321,14 @@
       <c r="E16">
         <v>46.15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>49.816700300000001</v>
+      </c>
+      <c r="G16">
+        <v>15.4749544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3225,8 +3344,14 @@
       <c r="E17">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>51.1638175</v>
+      </c>
+      <c r="G17">
+        <v>10.447831300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3242,8 +3367,14 @@
       <c r="E18">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>55.670248999999998</v>
+      </c>
+      <c r="G18">
+        <v>10.3333283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3257,10 +3388,16 @@
         <v>133</v>
       </c>
       <c r="E19">
-        <v>36.09</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="F19">
+        <v>39.326068499999998</v>
+      </c>
+      <c r="G19">
+        <v>-4.8379791000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3276,8 +3413,14 @@
       <c r="E20">
         <v>35.28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>63.246777700000003</v>
+      </c>
+      <c r="G20">
+        <v>25.920916399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3293,8 +3436,14 @@
       <c r="E21">
         <v>34.17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>46.603354000000003</v>
+      </c>
+      <c r="G21">
+        <v>1.8883335000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3459,14 @@
       <c r="E22">
         <v>35.85</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="G22">
+        <v>-3.2765753000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3327,8 +3482,14 @@
       <c r="E23">
         <v>35.22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>22.350626999999999</v>
+      </c>
+      <c r="G23">
+        <v>114.1849161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3344,8 +3505,14 @@
       <c r="E24">
         <v>24.73</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>-2.4833826000000001</v>
+      </c>
+      <c r="G24">
+        <v>117.8902853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3361,8 +3528,14 @@
       <c r="E25">
         <v>12.57</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>52.865195999999997</v>
+      </c>
+      <c r="G25">
+        <v>-7.9794599000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3378,8 +3551,14 @@
       <c r="E26">
         <v>31.71</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>40.079660599999997</v>
+      </c>
+      <c r="G26">
+        <v>-89.433728799999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3395,8 +3574,14 @@
       <c r="E27">
         <v>26.86</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="G27">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3412,8 +3597,14 @@
       <c r="E28">
         <v>24.94</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>33.095579299999997</v>
+      </c>
+      <c r="G28">
+        <v>44.174977499999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3429,8 +3620,14 @@
       <c r="E29">
         <v>42.66</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>42.638426099999997</v>
+      </c>
+      <c r="G29">
+        <v>12.674296999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3446,8 +3643,14 @@
       <c r="E30">
         <v>32.06</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>31.166704899999999</v>
+      </c>
+      <c r="G30">
+        <v>36.941628000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3463,8 +3666,14 @@
       <c r="E31">
         <v>29.49</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>36.5748441</v>
+      </c>
+      <c r="G31">
+        <v>139.23941790000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3480,8 +3689,14 @@
       <c r="E32">
         <v>30.36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>12.543321600000001</v>
+      </c>
+      <c r="G32">
+        <v>104.81449139999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3497,8 +3712,14 @@
       <c r="E33">
         <v>27.87</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>36.638392000000003</v>
+      </c>
+      <c r="G33">
+        <v>127.69611879999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3514,8 +3735,14 @@
       <c r="E34">
         <v>29.29</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>29.273396399999999</v>
+      </c>
+      <c r="G34">
+        <v>47.497947600000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3529,10 +3756,16 @@
         <v>84</v>
       </c>
       <c r="E35">
-        <v>19.56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="F35">
+        <v>37.572602799999999</v>
+      </c>
+      <c r="G35">
+        <v>-85.155141099999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3546,10 +3779,16 @@
         <v>78</v>
       </c>
       <c r="E36">
-        <v>19.49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="F36">
+        <v>33.875062900000003</v>
+      </c>
+      <c r="G36">
+        <v>35.843409000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3565,8 +3804,14 @@
       <c r="E37">
         <v>15.81</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>7.5554942</v>
+      </c>
+      <c r="G37">
+        <v>80.713784700000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3582,8 +3827,14 @@
       <c r="E38">
         <v>40.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>50.8586338</v>
+      </c>
+      <c r="G38">
+        <v>22.773240399999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3599,8 +3850,14 @@
       <c r="E39">
         <v>15.88</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>17.1750495</v>
+      </c>
+      <c r="G39">
+        <v>95.999965200000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3616,8 +3873,14 @@
       <c r="E40">
         <v>49.51</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>38.760481499999997</v>
+      </c>
+      <c r="G40">
+        <v>-92.561787499999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3633,8 +3896,14 @@
       <c r="E41">
         <v>19.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>-20.275945100000001</v>
+      </c>
+      <c r="G41">
+        <v>57.570356599999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -3650,8 +3919,14 @@
       <c r="E42">
         <v>19.54</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>3.7203503000000002</v>
+      </c>
+      <c r="G42">
+        <v>73.224415199999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -3667,8 +3942,14 @@
       <c r="E43">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G43">
+        <v>-100.445882</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -3684,8 +3965,14 @@
       <c r="E44">
         <v>29.86</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>52.247649750000001</v>
+      </c>
+      <c r="G44">
+        <v>5.5412468490000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -3701,8 +3988,14 @@
       <c r="E45">
         <v>37.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>60.500020900000003</v>
+      </c>
+      <c r="G45">
+        <v>9.0999715000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +4011,14 @@
       <c r="E46">
         <v>28.67</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="G46">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -3733,10 +4032,16 @@
         <v>157</v>
       </c>
       <c r="E47">
-        <v>35.45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="F47">
+        <v>-41.500083099999998</v>
+      </c>
+      <c r="G47">
+        <v>172.83440770000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -3752,8 +4057,14 @@
       <c r="E48">
         <v>25.26</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>21.000028700000001</v>
+      </c>
+      <c r="G48">
+        <v>57.0036901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -3769,8 +4080,14 @@
       <c r="E49">
         <v>34.86</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>12.750348600000001</v>
+      </c>
+      <c r="G49">
+        <v>122.7312101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3786,8 +4103,14 @@
       <c r="E50">
         <v>16.14</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>30.3308401</v>
+      </c>
+      <c r="G50">
+        <v>71.247499000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -3803,8 +4126,14 @@
       <c r="E51">
         <v>32.78</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>52.215933</v>
+      </c>
+      <c r="G51">
+        <v>19.134422000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -3820,8 +4149,14 @@
       <c r="E52">
         <v>34.24</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>40.033262899999997</v>
+      </c>
+      <c r="G52">
+        <v>-7.8896262999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -3837,8 +4172,14 @@
       <c r="E53">
         <v>25.76</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>25.333698399999999</v>
+      </c>
+      <c r="G53">
+        <v>51.229529499999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -3854,8 +4195,14 @@
       <c r="E54">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="G54">
+        <v>-3.2765753000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3871,8 +4218,14 @@
       <c r="E55">
         <v>25.37</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>25.624261799999999</v>
+      </c>
+      <c r="G55">
+        <v>42.352832800000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -3886,10 +4239,16 @@
         <v>135</v>
       </c>
       <c r="E56">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F56">
+        <v>1.3571070000000001</v>
+      </c>
+      <c r="G56">
+        <v>103.8194992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3905,8 +4264,14 @@
       <c r="E57">
         <v>25.07</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>50.901472099999999</v>
+      </c>
+      <c r="G57">
+        <v>11.037783900000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4287,14 @@
       <c r="E58">
         <v>21.84</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>38.959759400000003</v>
+      </c>
+      <c r="G58">
+        <v>34.924965299999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -3939,8 +4310,14 @@
       <c r="E59">
         <v>35.01</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>10.7466905</v>
+      </c>
+      <c r="G59">
+        <v>-61.084007499999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3956,8 +4333,14 @@
       <c r="E60">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>23.973937400000001</v>
+      </c>
+      <c r="G60">
+        <v>120.9820179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -3973,8 +4356,14 @@
       <c r="E61">
         <v>3.140000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>49.4871968</v>
+      </c>
+      <c r="G61">
+        <v>31.271832100000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -3990,8 +4379,14 @@
       <c r="E62">
         <v>35.97</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G62">
+        <v>-100.445882</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -4005,10 +4400,16 @@
         <v>75</v>
       </c>
       <c r="E63">
-        <v>17.17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="F63">
+        <v>15.926665699999999</v>
+      </c>
+      <c r="G63">
+        <v>107.9650855</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -4023,6 +4424,12 @@
       </c>
       <c r="E64">
         <v>9.42</v>
+      </c>
+      <c r="F64">
+        <v>-28.8166236</v>
+      </c>
+      <c r="G64">
+        <v>24.991638999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4031,14 +4438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -4049,7 +4456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4060,7 +4467,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -4071,7 +4478,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4082,7 +4489,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -4093,7 +4500,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -4104,7 +4511,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -4115,7 +4522,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4126,7 +4533,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4137,7 +4544,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4148,7 +4555,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -4159,7 +4566,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4170,7 +4577,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -4181,7 +4588,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -4192,7 +4599,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -4203,7 +4610,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -4214,7 +4621,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4225,7 +4632,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -4236,7 +4643,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -4247,7 +4654,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -4258,7 +4665,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -4269,7 +4676,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -4280,7 +4687,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4291,7 +4698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4302,7 +4709,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -4313,7 +4720,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -4324,7 +4731,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -4335,7 +4742,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -4346,7 +4753,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -4357,7 +4764,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -4368,7 +4775,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -4379,7 +4786,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -4390,7 +4797,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -4401,7 +4808,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -4412,7 +4819,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -4423,7 +4830,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -4434,7 +4841,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -4445,7 +4852,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4456,7 +4863,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -4467,7 +4874,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -4478,7 +4885,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -4489,7 +4896,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -4500,7 +4907,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -4511,7 +4918,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -4522,7 +4929,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -4533,7 +4940,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -4544,7 +4951,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -4555,7 +4962,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -4566,7 +4973,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -4577,7 +4984,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -4588,7 +4995,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -4599,7 +5006,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -4610,7 +5017,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -4621,7 +5028,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -4632,7 +5039,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -4643,7 +5050,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -4654,7 +5061,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -4665,7 +5072,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -4676,7 +5083,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -4687,7 +5094,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -4698,7 +5105,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -4709,7 +5116,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -4720,7 +5127,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -4731,7 +5138,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -4742,7 +5149,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -4753,7 +5160,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -4764,7 +5171,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -4775,7 +5182,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -4786,7 +5193,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -4797,7 +5204,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -4808,7 +5215,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -4819,7 +5226,7 @@
         <v>7821</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -4830,7 +5237,7 @@
         <v>11337</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -4841,7 +5248,7 @@
         <v>9157</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -4852,7 +5259,7 @@
         <v>9806</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -4863,7 +5270,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -4874,7 +5281,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -4885,7 +5292,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -4896,7 +5303,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -4907,7 +5314,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -4918,7 +5325,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -4929,7 +5336,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -4940,7 +5347,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -4951,7 +5358,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -4962,7 +5369,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -4973,7 +5380,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -4984,7 +5391,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -4995,7 +5402,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -5006,7 +5413,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -5017,7 +5424,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -5028,7 +5435,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -5039,7 +5446,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>172</v>
       </c>
@@ -5050,7 +5457,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -5061,7 +5468,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>174</v>
       </c>
@@ -5072,7 +5479,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -5083,7 +5490,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -5094,7 +5501,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -5105,7 +5512,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -5116,7 +5523,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -5127,7 +5534,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>180</v>
       </c>
@@ -5138,7 +5545,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>181</v>
       </c>
@@ -5149,7 +5556,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -5160,7 +5567,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -5171,7 +5578,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -5182,7 +5589,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -5193,7 +5600,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -5204,7 +5611,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -5215,7 +5622,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -5226,7 +5633,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -5237,7 +5644,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>190</v>
       </c>
@@ -5248,7 +5655,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -5259,7 +5666,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -5270,7 +5677,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>193</v>
       </c>
@@ -5281,7 +5688,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -5292,7 +5699,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>195</v>
       </c>
@@ -5303,7 +5710,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -5314,7 +5721,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -5325,7 +5732,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>198</v>
       </c>
@@ -5336,7 +5743,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>199</v>
       </c>
@@ -5347,7 +5754,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -5358,7 +5765,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>201</v>
       </c>
@@ -5369,7 +5776,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -5380,7 +5787,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -5391,7 +5798,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>204</v>
       </c>
@@ -5402,7 +5809,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>205</v>
       </c>
@@ -5413,7 +5820,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -5424,7 +5831,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>207</v>
       </c>
@@ -5435,7 +5842,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -5446,7 +5853,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -5457,7 +5864,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>210</v>
       </c>
@@ -5468,7 +5875,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>211</v>
       </c>
@@ -5479,7 +5886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>212</v>
       </c>
@@ -5490,7 +5897,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -5501,7 +5908,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>214</v>
       </c>
@@ -5512,7 +5919,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -5523,7 +5930,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>216</v>
       </c>
@@ -5534,7 +5941,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -5545,7 +5952,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>218</v>
       </c>
@@ -5556,7 +5963,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>219</v>
       </c>
@@ -5567,7 +5974,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -5578,7 +5985,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>221</v>
       </c>
@@ -5589,7 +5996,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>222</v>
       </c>
@@ -5600,7 +6007,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>223</v>
       </c>
@@ -5611,7 +6018,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>224</v>
       </c>
@@ -5622,7 +6029,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>225</v>
       </c>
@@ -5633,7 +6040,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>226</v>
       </c>
@@ -5644,7 +6051,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>227</v>
       </c>
@@ -5655,7 +6062,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>228</v>
       </c>
@@ -5666,7 +6073,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>229</v>
       </c>
@@ -5677,7 +6084,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>230</v>
       </c>
@@ -5688,7 +6095,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>231</v>
       </c>
@@ -5699,7 +6106,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>232</v>
       </c>
@@ -5710,7 +6117,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>233</v>
       </c>
@@ -5721,7 +6128,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>234</v>
       </c>
@@ -5732,7 +6139,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>235</v>
       </c>
@@ -5743,7 +6150,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>236</v>
       </c>
@@ -5754,7 +6161,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>237</v>
       </c>
@@ -5765,7 +6172,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>238</v>
       </c>
@@ -5776,7 +6183,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>239</v>
       </c>
@@ -5787,7 +6194,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>240</v>
       </c>
@@ -5798,7 +6205,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>241</v>
       </c>
@@ -5809,7 +6216,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>242</v>
       </c>
@@ -5820,7 +6227,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>243</v>
       </c>
@@ -5831,7 +6238,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>244</v>
       </c>
@@ -5842,7 +6249,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>245</v>
       </c>
@@ -5853,7 +6260,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>246</v>
       </c>
@@ -5864,7 +6271,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>247</v>
       </c>
@@ -5875,7 +6282,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>248</v>
       </c>
@@ -5886,7 +6293,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>249</v>
       </c>
@@ -5897,7 +6304,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>250</v>
       </c>
@@ -5908,7 +6315,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>251</v>
       </c>
@@ -5919,7 +6326,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>252</v>
       </c>
@@ -5930,7 +6337,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>253</v>
       </c>
@@ -5941,7 +6348,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>254</v>
       </c>
@@ -5952,7 +6359,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -5963,7 +6370,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>256</v>
       </c>
@@ -5974,7 +6381,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>257</v>
       </c>
@@ -5985,7 +6392,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>258</v>
       </c>
@@ -5996,7 +6403,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>259</v>
       </c>
@@ -6007,7 +6414,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>260</v>
       </c>
@@ -6018,7 +6425,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>261</v>
       </c>
@@ -6029,7 +6436,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>262</v>
       </c>
@@ -6040,7 +6447,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>263</v>
       </c>
@@ -6051,7 +6458,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>264</v>
       </c>
@@ -6062,7 +6469,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>265</v>
       </c>
@@ -6073,7 +6480,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>266</v>
       </c>
@@ -6084,7 +6491,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>267</v>
       </c>
@@ -6095,7 +6502,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>268</v>
       </c>
@@ -6106,7 +6513,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>269</v>
       </c>
@@ -6117,7 +6524,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>270</v>
       </c>
@@ -6128,7 +6535,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>271</v>
       </c>
@@ -6139,7 +6546,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -6150,7 +6557,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>273</v>
       </c>
@@ -6161,7 +6568,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>274</v>
       </c>
@@ -6172,7 +6579,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>275</v>
       </c>
@@ -6183,7 +6590,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>276</v>
       </c>
@@ -6194,7 +6601,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>277</v>
       </c>
@@ -6205,7 +6612,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>278</v>
       </c>
@@ -6216,7 +6623,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>279</v>
       </c>
@@ -6227,7 +6634,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>280</v>
       </c>
@@ -6238,7 +6645,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>281</v>
       </c>
@@ -6249,7 +6656,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>282</v>
       </c>
@@ -6260,7 +6667,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>283</v>
       </c>
@@ -6271,7 +6678,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>284</v>
       </c>
@@ -6282,7 +6689,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>285</v>
       </c>
@@ -6293,7 +6700,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>286</v>
       </c>
@@ -6304,7 +6711,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>287</v>
       </c>
@@ -6315,7 +6722,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>288</v>
       </c>
@@ -6326,7 +6733,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>289</v>
       </c>
@@ -6337,7 +6744,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>290</v>
       </c>
@@ -6348,7 +6755,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>291</v>
       </c>
@@ -6359,7 +6766,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>292</v>
       </c>
@@ -6370,7 +6777,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>293</v>
       </c>
@@ -6381,7 +6788,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>294</v>
       </c>
@@ -6392,7 +6799,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>295</v>
       </c>
@@ -6403,7 +6810,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>296</v>
       </c>
@@ -6414,7 +6821,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>297</v>
       </c>
@@ -6425,7 +6832,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>298</v>
       </c>
@@ -6436,7 +6843,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>299</v>
       </c>
@@ -6447,7 +6854,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>300</v>
       </c>
@@ -6458,7 +6865,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>301</v>
       </c>
@@ -6469,7 +6876,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>302</v>
       </c>
@@ -6480,7 +6887,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>303</v>
       </c>
@@ -6491,7 +6898,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>304</v>
       </c>
@@ -6502,7 +6909,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>305</v>
       </c>
@@ -6513,7 +6920,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>306</v>
       </c>
@@ -6524,7 +6931,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>307</v>
       </c>
@@ -6535,7 +6942,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>308</v>
       </c>
@@ -6546,7 +6953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>309</v>
       </c>
@@ -6557,7 +6964,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>310</v>
       </c>
@@ -6568,7 +6975,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>311</v>
       </c>
@@ -6579,7 +6986,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>312</v>
       </c>
@@ -6590,7 +6997,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>313</v>
       </c>
@@ -6601,7 +7008,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>314</v>
       </c>
@@ -6612,7 +7019,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>315</v>
       </c>
@@ -6623,7 +7030,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>316</v>
       </c>
@@ -6634,7 +7041,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>317</v>
       </c>
@@ -6645,7 +7052,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>318</v>
       </c>
@@ -6656,7 +7063,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>319</v>
       </c>
@@ -6667,7 +7074,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>320</v>
       </c>
@@ -6678,7 +7085,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>321</v>
       </c>
@@ -6689,7 +7096,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>322</v>
       </c>
@@ -6700,7 +7107,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>323</v>
       </c>
@@ -6711,7 +7118,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>324</v>
       </c>
@@ -6722,7 +7129,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>325</v>
       </c>
@@ -6733,7 +7140,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>326</v>
       </c>
@@ -6744,7 +7151,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>327</v>
       </c>
@@ -6755,7 +7162,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>328</v>
       </c>
@@ -6766,7 +7173,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>329</v>
       </c>
@@ -6777,7 +7184,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>330</v>
       </c>
@@ -6788,7 +7195,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>331</v>
       </c>
@@ -6799,7 +7206,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>332</v>
       </c>
@@ -6810,7 +7217,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>333</v>
       </c>
@@ -6821,7 +7228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>334</v>
       </c>
@@ -6832,7 +7239,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>335</v>
       </c>
@@ -6843,7 +7250,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>336</v>
       </c>
@@ -6854,7 +7261,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>337</v>
       </c>
@@ -6865,7 +7272,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>338</v>
       </c>
@@ -6876,7 +7283,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>339</v>
       </c>
@@ -6887,7 +7294,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>340</v>
       </c>
@@ -6898,7 +7305,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>341</v>
       </c>
@@ -6909,7 +7316,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>342</v>
       </c>
@@ -6920,7 +7327,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>343</v>
       </c>
@@ -6931,7 +7338,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>344</v>
       </c>
@@ -6942,7 +7349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>345</v>
       </c>
@@ -6953,7 +7360,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>346</v>
       </c>
@@ -6964,7 +7371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>347</v>
       </c>
@@ -6975,7 +7382,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>348</v>
       </c>
@@ -6986,7 +7393,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>349</v>
       </c>
@@ -6997,7 +7404,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>350</v>
       </c>
@@ -7008,7 +7415,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>351</v>
       </c>
@@ -7019,7 +7426,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>352</v>
       </c>
@@ -7030,7 +7437,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>353</v>
       </c>
@@ -7041,7 +7448,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>354</v>
       </c>
@@ -7052,7 +7459,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>355</v>
       </c>
@@ -7063,7 +7470,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>356</v>
       </c>
@@ -7074,7 +7481,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>357</v>
       </c>
@@ -7085,7 +7492,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>358</v>
       </c>
@@ -7096,7 +7503,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>359</v>
       </c>
@@ -7107,7 +7514,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>360</v>
       </c>
@@ -7118,7 +7525,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>361</v>
       </c>
@@ -7129,7 +7536,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>362</v>
       </c>
@@ -7140,7 +7547,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>363</v>
       </c>
@@ -7151,7 +7558,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>364</v>
       </c>
@@ -7162,7 +7569,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>365</v>
       </c>
@@ -7173,7 +7580,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>366</v>
       </c>
@@ -7184,7 +7591,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>367</v>
       </c>
@@ -7195,7 +7602,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>368</v>
       </c>
@@ -7206,7 +7613,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>369</v>
       </c>
@@ -7217,7 +7624,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -7228,7 +7635,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>371</v>
       </c>
@@ -7239,7 +7646,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>372</v>
       </c>
@@ -7250,7 +7657,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>373</v>
       </c>
@@ -7261,7 +7668,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>374</v>
       </c>
@@ -7272,7 +7679,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>375</v>
       </c>
@@ -7283,7 +7690,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>376</v>
       </c>
@@ -7294,7 +7701,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>377</v>
       </c>
@@ -7305,7 +7712,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>378</v>
       </c>
@@ -7316,7 +7723,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>379</v>
       </c>
@@ -7327,7 +7734,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>380</v>
       </c>
@@ -7338,7 +7745,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>381</v>
       </c>
@@ -7349,7 +7756,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>382</v>
       </c>
@@ -7360,7 +7767,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>383</v>
       </c>
@@ -7371,7 +7778,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>384</v>
       </c>
@@ -7382,7 +7789,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>385</v>
       </c>
@@ -7393,7 +7800,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>386</v>
       </c>
@@ -7404,7 +7811,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>387</v>
       </c>
@@ -7415,7 +7822,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>388</v>
       </c>
@@ -7426,7 +7833,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>389</v>
       </c>
@@ -7437,7 +7844,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>390</v>
       </c>
@@ -7448,7 +7855,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>391</v>
       </c>
@@ -7459,7 +7866,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>392</v>
       </c>
@@ -7470,7 +7877,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>393</v>
       </c>
@@ -7481,7 +7888,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>394</v>
       </c>
@@ -7492,7 +7899,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>395</v>
       </c>
@@ -7503,7 +7910,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>396</v>
       </c>
@@ -7514,7 +7921,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>397</v>
       </c>
@@ -7525,7 +7932,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>398</v>
       </c>
@@ -7536,7 +7943,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>399</v>
       </c>
@@ -7547,7 +7954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>400</v>
       </c>
@@ -7558,7 +7965,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>401</v>
       </c>
@@ -7569,7 +7976,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>402</v>
       </c>
@@ -7580,7 +7987,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>403</v>
       </c>
@@ -7591,7 +7998,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>404</v>
       </c>
@@ -7602,7 +8009,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>405</v>
       </c>
@@ -7613,7 +8020,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>406</v>
       </c>
@@ -7624,7 +8031,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>407</v>
       </c>
@@ -7635,7 +8042,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>408</v>
       </c>
@@ -7646,7 +8053,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -7657,7 +8064,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>410</v>
       </c>
@@ -7668,7 +8075,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>411</v>
       </c>
@@ -7679,7 +8086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>412</v>
       </c>
@@ -7690,7 +8097,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>413</v>
       </c>
@@ -7701,7 +8108,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>414</v>
       </c>
@@ -7712,7 +8119,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>415</v>
       </c>
@@ -7723,7 +8130,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>416</v>
       </c>
@@ -7734,7 +8141,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>417</v>
       </c>
@@ -7745,7 +8152,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>418</v>
       </c>
@@ -7756,7 +8163,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>419</v>
       </c>
@@ -7767,7 +8174,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>420</v>
       </c>
@@ -7778,7 +8185,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>421</v>
       </c>
@@ -7789,7 +8196,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>422</v>
       </c>
@@ -7800,7 +8207,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>423</v>
       </c>
@@ -7811,7 +8218,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>424</v>
       </c>
@@ -7822,7 +8229,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>425</v>
       </c>
@@ -7833,7 +8240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>426</v>
       </c>
@@ -7844,7 +8251,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>427</v>
       </c>
@@ -7855,7 +8262,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>428</v>
       </c>
@@ -7866,7 +8273,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>429</v>
       </c>
@@ -7877,7 +8284,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>430</v>
       </c>
@@ -7888,7 +8295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>431</v>
       </c>
@@ -7899,7 +8306,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>432</v>
       </c>
@@ -7910,7 +8317,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>433</v>
       </c>
@@ -7921,7 +8328,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>434</v>
       </c>
@@ -7932,7 +8339,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>435</v>
       </c>
@@ -7943,7 +8350,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>436</v>
       </c>
@@ -7954,7 +8361,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>437</v>
       </c>
@@ -7965,7 +8372,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>438</v>
       </c>
@@ -7976,7 +8383,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>439</v>
       </c>
@@ -7987,7 +8394,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>440</v>
       </c>
@@ -7998,7 +8405,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>441</v>
       </c>
@@ -8009,7 +8416,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>442</v>
       </c>
@@ -8020,7 +8427,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>443</v>
       </c>
@@ -8031,7 +8438,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>444</v>
       </c>
@@ -8042,7 +8449,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>445</v>
       </c>
@@ -8053,7 +8460,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>446</v>
       </c>
@@ -8064,7 +8471,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>447</v>
       </c>
@@ -8075,7 +8482,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>448</v>
       </c>
@@ -8086,7 +8493,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>449</v>
       </c>
@@ -8097,7 +8504,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>450</v>
       </c>
@@ -8108,7 +8515,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>451</v>
       </c>
@@ -8119,7 +8526,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>452</v>
       </c>
@@ -8130,7 +8537,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>453</v>
       </c>
@@ -8141,7 +8548,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>454</v>
       </c>
@@ -8152,7 +8559,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>455</v>
       </c>
@@ -8163,7 +8570,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>456</v>
       </c>
@@ -8174,7 +8581,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>457</v>
       </c>
@@ -8185,7 +8592,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>458</v>
       </c>
@@ -8196,7 +8603,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>459</v>
       </c>
@@ -8207,7 +8614,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>460</v>
       </c>
@@ -8218,7 +8625,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>461</v>
       </c>
@@ -8229,7 +8636,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>462</v>
       </c>
@@ -8240,7 +8647,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>463</v>
       </c>
@@ -8251,7 +8658,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>464</v>
       </c>
@@ -8262,7 +8669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>465</v>
       </c>
@@ -8273,7 +8680,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>466</v>
       </c>
@@ -8284,7 +8691,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>467</v>
       </c>
@@ -8295,7 +8702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>468</v>
       </c>
@@ -8306,7 +8713,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>469</v>
       </c>
@@ -8317,7 +8724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>470</v>
       </c>
@@ -8328,7 +8735,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>471</v>
       </c>
@@ -8339,7 +8746,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>472</v>
       </c>
@@ -8350,7 +8757,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>473</v>
       </c>
@@ -8361,7 +8768,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>474</v>
       </c>
@@ -8372,7 +8779,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>475</v>
       </c>
@@ -8383,7 +8790,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>476</v>
       </c>
@@ -8394,7 +8801,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>477</v>
       </c>
@@ -8405,7 +8812,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>478</v>
       </c>
@@ -8416,7 +8823,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>479</v>
       </c>
@@ -8427,7 +8834,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>480</v>
       </c>
@@ -8438,7 +8845,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>481</v>
       </c>
@@ -8449,7 +8856,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>482</v>
       </c>
@@ -8460,7 +8867,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>483</v>
       </c>
@@ -8471,7 +8878,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>484</v>
       </c>
@@ -8482,7 +8889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>485</v>
       </c>
@@ -8493,7 +8900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>486</v>
       </c>
@@ -8504,7 +8911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>487</v>
       </c>
@@ -8515,7 +8922,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>488</v>
       </c>
@@ -8526,7 +8933,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>489</v>
       </c>
@@ -8537,7 +8944,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>490</v>
       </c>
@@ -8548,7 +8955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>491</v>
       </c>
@@ -8559,7 +8966,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>492</v>
       </c>
@@ -8570,7 +8977,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>493</v>
       </c>
@@ -8581,7 +8988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>494</v>
       </c>
@@ -8592,7 +8999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>495</v>
       </c>
@@ -8603,7 +9010,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>496</v>
       </c>
@@ -8614,7 +9021,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>497</v>
       </c>
@@ -8625,7 +9032,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>498</v>
       </c>
@@ -8636,7 +9043,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>499</v>
       </c>
@@ -8647,7 +9054,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>500</v>
       </c>
@@ -8658,7 +9065,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>501</v>
       </c>
@@ -8669,7 +9076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>502</v>
       </c>
@@ -8680,7 +9087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>503</v>
       </c>
@@ -8691,7 +9098,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>504</v>
       </c>
@@ -8702,7 +9109,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>505</v>
       </c>
@@ -8713,7 +9120,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>506</v>
       </c>
@@ -8724,7 +9131,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>507</v>
       </c>
@@ -8735,7 +9142,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>508</v>
       </c>
@@ -8746,7 +9153,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>509</v>
       </c>
@@ -8757,7 +9164,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>510</v>
       </c>
@@ -8768,7 +9175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>511</v>
       </c>
@@ -8779,7 +9186,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>512</v>
       </c>
@@ -8790,7 +9197,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>513</v>
       </c>
@@ -8801,7 +9208,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>514</v>
       </c>
@@ -8812,7 +9219,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>515</v>
       </c>
@@ -8823,7 +9230,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>516</v>
       </c>
@@ -8834,7 +9241,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>517</v>
       </c>
@@ -8845,7 +9252,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>518</v>
       </c>
@@ -8856,7 +9263,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>519</v>
       </c>
@@ -8867,7 +9274,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>520</v>
       </c>
@@ -8878,7 +9285,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>521</v>
       </c>
@@ -8889,7 +9296,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>522</v>
       </c>
@@ -8900,7 +9307,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>523</v>
       </c>
@@ -8911,7 +9318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>524</v>
       </c>
@@ -8922,7 +9329,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>525</v>
       </c>
@@ -8933,7 +9340,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>526</v>
       </c>
@@ -8944,7 +9351,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>527</v>
       </c>
@@ -8955,7 +9362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>528</v>
       </c>
@@ -8966,7 +9373,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>529</v>
       </c>
@@ -8977,7 +9384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>530</v>
       </c>
@@ -8988,7 +9395,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>531</v>
       </c>
@@ -8999,7 +9406,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>532</v>
       </c>
@@ -9010,7 +9417,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>533</v>
       </c>
@@ -9021,7 +9428,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>534</v>
       </c>
@@ -9032,7 +9439,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>535</v>
       </c>
@@ -9043,7 +9450,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>536</v>
       </c>
@@ -9054,7 +9461,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>537</v>
       </c>
@@ -9065,7 +9472,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>538</v>
       </c>
@@ -9076,7 +9483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>539</v>
       </c>
@@ -9087,7 +9494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>540</v>
       </c>
@@ -9098,7 +9505,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>541</v>
       </c>
@@ -9109,7 +9516,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>542</v>
       </c>
@@ -9120,7 +9527,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>543</v>
       </c>
@@ -9131,7 +9538,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>544</v>
       </c>
@@ -9142,7 +9549,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>545</v>
       </c>
@@ -9153,7 +9560,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>546</v>
       </c>
@@ -9164,7 +9571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>547</v>
       </c>
@@ -9175,7 +9582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>548</v>
       </c>
@@ -9186,7 +9593,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>549</v>
       </c>
@@ -9197,7 +9604,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>550</v>
       </c>
@@ -9208,7 +9615,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>551</v>
       </c>
@@ -9219,7 +9626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>552</v>
       </c>
@@ -9230,7 +9637,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>553</v>
       </c>
@@ -9241,7 +9648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>554</v>
       </c>
@@ -9252,7 +9659,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>555</v>
       </c>
@@ -9263,7 +9670,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>556</v>
       </c>
@@ -9274,7 +9681,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>557</v>
       </c>
@@ -9285,7 +9692,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>558</v>
       </c>
@@ -9296,7 +9703,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>559</v>
       </c>
@@ -9307,7 +9714,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>560</v>
       </c>
@@ -9318,7 +9725,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>561</v>
       </c>
@@ -9329,7 +9736,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>562</v>
       </c>
@@ -9340,7 +9747,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>563</v>
       </c>
@@ -9351,7 +9758,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>564</v>
       </c>
@@ -9362,7 +9769,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>565</v>
       </c>
@@ -9373,7 +9780,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>566</v>
       </c>
@@ -9384,7 +9791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>567</v>
       </c>
@@ -9395,7 +9802,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>568</v>
       </c>
@@ -9406,7 +9813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>569</v>
       </c>
@@ -9417,7 +9824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>570</v>
       </c>
@@ -9428,7 +9835,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>571</v>
       </c>
@@ -9439,7 +9846,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>572</v>
       </c>
@@ -9450,7 +9857,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>573</v>
       </c>
@@ -9461,7 +9868,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>574</v>
       </c>
@@ -9472,7 +9879,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>575</v>
       </c>
@@ -9483,7 +9890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>576</v>
       </c>
@@ -9494,7 +9901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>577</v>
       </c>
@@ -9505,7 +9912,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>578</v>
       </c>
@@ -9516,7 +9923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>579</v>
       </c>
@@ -9527,7 +9934,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>580</v>
       </c>
@@ -9538,7 +9945,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>581</v>
       </c>
@@ -9549,7 +9956,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>582</v>
       </c>
@@ -9560,7 +9967,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>583</v>
       </c>
@@ -9571,7 +9978,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>584</v>
       </c>
@@ -9582,7 +9989,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>585</v>
       </c>
@@ -9593,7 +10000,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>586</v>
       </c>
@@ -9604,7 +10011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>587</v>
       </c>
@@ -9615,7 +10022,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>588</v>
       </c>
@@ -9626,7 +10033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>589</v>
       </c>
@@ -9637,7 +10044,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>590</v>
       </c>
@@ -9648,7 +10055,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>591</v>
       </c>
@@ -9659,7 +10066,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>592</v>
       </c>
@@ -9670,7 +10077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>593</v>
       </c>
@@ -9681,7 +10088,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>594</v>
       </c>
@@ -9692,7 +10099,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>595</v>
       </c>
@@ -9703,7 +10110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>596</v>
       </c>
@@ -9714,7 +10121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>597</v>
       </c>
@@ -9725,7 +10132,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>598</v>
       </c>
@@ -9736,7 +10143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>599</v>
       </c>
@@ -9747,7 +10154,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>600</v>
       </c>
@@ -9758,7 +10165,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>601</v>
       </c>
@@ -9769,7 +10176,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>602</v>
       </c>
@@ -9780,7 +10187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>603</v>
       </c>
@@ -9791,7 +10198,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>604</v>
       </c>
@@ -9802,7 +10209,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>605</v>
       </c>
@@ -9813,7 +10220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>606</v>
       </c>
@@ -9824,7 +10231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>607</v>
       </c>
@@ -9835,7 +10242,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>608</v>
       </c>
@@ -9846,7 +10253,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>609</v>
       </c>
@@ -9857,7 +10264,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>610</v>
       </c>
@@ -9868,7 +10275,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>611</v>
       </c>
@@ -9879,7 +10286,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>612</v>
       </c>
@@ -9890,7 +10297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>613</v>
       </c>
@@ -9901,7 +10308,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>614</v>
       </c>
@@ -9912,7 +10319,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>615</v>
       </c>
@@ -9923,7 +10330,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>616</v>
       </c>
@@ -9934,7 +10341,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>617</v>
       </c>
@@ -9945,7 +10352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>618</v>
       </c>
@@ -9956,7 +10363,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>619</v>
       </c>
@@ -9967,7 +10374,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>620</v>
       </c>
@@ -9978,7 +10385,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>621</v>
       </c>
@@ -9989,7 +10396,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>622</v>
       </c>
@@ -10000,7 +10407,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>623</v>
       </c>
@@ -10011,7 +10418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>624</v>
       </c>
@@ -10022,7 +10429,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>625</v>
       </c>
@@ -10033,7 +10440,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>626</v>
       </c>
@@ -10044,7 +10451,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>627</v>
       </c>
@@ -10055,7 +10462,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>628</v>
       </c>
@@ -10066,7 +10473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>629</v>
       </c>
@@ -10077,7 +10484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>630</v>
       </c>
@@ -10088,7 +10495,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>631</v>
       </c>
@@ -10099,7 +10506,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>632</v>
       </c>
@@ -10110,7 +10517,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>633</v>
       </c>
@@ -10121,7 +10528,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>634</v>
       </c>
@@ -10132,7 +10539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>635</v>
       </c>
@@ -10143,7 +10550,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>636</v>
       </c>
@@ -10154,7 +10561,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>637</v>
       </c>
@@ -10165,7 +10572,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>638</v>
       </c>
@@ -10176,7 +10583,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>639</v>
       </c>
@@ -10187,7 +10594,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>640</v>
       </c>
@@ -10198,7 +10605,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>641</v>
       </c>
@@ -10209,7 +10616,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>642</v>
       </c>
@@ -10220,7 +10627,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>643</v>
       </c>
@@ -10231,7 +10638,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>644</v>
       </c>
@@ -10242,7 +10649,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>645</v>
       </c>
@@ -10253,7 +10660,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>646</v>
       </c>
@@ -10264,7 +10671,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>647</v>
       </c>
@@ -10275,7 +10682,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>648</v>
       </c>
@@ -10286,7 +10693,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>649</v>
       </c>
@@ -10297,7 +10704,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>650</v>
       </c>
@@ -10308,7 +10715,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>651</v>
       </c>
@@ -10319,7 +10726,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>652</v>
       </c>
@@ -10330,7 +10737,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>653</v>
       </c>
@@ -10341,7 +10748,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>654</v>
       </c>
@@ -10352,7 +10759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>655</v>
       </c>
@@ -10363,7 +10770,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>656</v>
       </c>
@@ -10374,7 +10781,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>657</v>
       </c>
@@ -10385,7 +10792,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>658</v>
       </c>
@@ -10396,7 +10803,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>659</v>
       </c>
@@ -10407,7 +10814,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>660</v>
       </c>
@@ -10418,7 +10825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>661</v>
       </c>
@@ -10429,7 +10836,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>662</v>
       </c>
@@ -10440,7 +10847,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>663</v>
       </c>
@@ -10451,7 +10858,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>664</v>
       </c>
@@ -10462,7 +10869,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>665</v>
       </c>
@@ -10473,7 +10880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>666</v>
       </c>
@@ -10484,7 +10891,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>667</v>
       </c>
@@ -10495,7 +10902,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>668</v>
       </c>
@@ -10506,7 +10913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>669</v>
       </c>
@@ -10517,7 +10924,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>670</v>
       </c>
@@ -10528,7 +10935,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>671</v>
       </c>
@@ -10539,7 +10946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>672</v>
       </c>
@@ -10550,7 +10957,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>673</v>
       </c>
@@ -10561,7 +10968,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>674</v>
       </c>
@@ -10572,7 +10979,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>675</v>
       </c>
@@ -10583,7 +10990,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>676</v>
       </c>
@@ -10594,7 +11001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>677</v>
       </c>
@@ -10605,7 +11012,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>678</v>
       </c>
@@ -10616,7 +11023,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>679</v>
       </c>
@@ -10627,7 +11034,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>680</v>
       </c>
@@ -10638,7 +11045,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>681</v>
       </c>
@@ -10649,7 +11056,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>682</v>
       </c>
@@ -10660,7 +11067,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>683</v>
       </c>
@@ -10671,7 +11078,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>684</v>
       </c>
@@ -10682,7 +11089,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>685</v>
       </c>
@@ -10693,7 +11100,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>686</v>
       </c>
@@ -10704,7 +11111,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>687</v>
       </c>
@@ -10715,7 +11122,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>688</v>
       </c>
@@ -10726,7 +11133,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>689</v>
       </c>
@@ -10737,7 +11144,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>690</v>
       </c>
@@ -10748,7 +11155,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>691</v>
       </c>
@@ -10759,7 +11166,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>692</v>
       </c>
@@ -10770,7 +11177,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>693</v>
       </c>
@@ -10781,7 +11188,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>694</v>
       </c>
@@ -10792,7 +11199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>695</v>
       </c>
@@ -10803,7 +11210,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>696</v>
       </c>
@@ -10814,7 +11221,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>697</v>
       </c>
@@ -10825,7 +11232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>698</v>
       </c>
@@ -10836,7 +11243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>699</v>
       </c>
@@ -10847,7 +11254,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>700</v>
       </c>
@@ -10858,7 +11265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>701</v>
       </c>
@@ -10869,7 +11276,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>702</v>
       </c>
@@ -10880,7 +11287,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>703</v>
       </c>
@@ -10891,7 +11298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>704</v>
       </c>
@@ -10902,7 +11309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>705</v>
       </c>
@@ -10913,7 +11320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>706</v>
       </c>
@@ -10924,7 +11331,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>707</v>
       </c>
@@ -10935,7 +11342,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>708</v>
       </c>
@@ -10946,7 +11353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>709</v>
       </c>
@@ -10957,7 +11364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>710</v>
       </c>
@@ -10968,7 +11375,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>711</v>
       </c>
@@ -10979,7 +11386,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>712</v>
       </c>
@@ -10990,7 +11397,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>713</v>
       </c>
@@ -11001,7 +11408,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>714</v>
       </c>
@@ -11012,7 +11419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>715</v>
       </c>
@@ -11023,7 +11430,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>716</v>
       </c>
@@ -11034,7 +11441,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>717</v>
       </c>
@@ -11045,7 +11452,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>718</v>
       </c>
@@ -11056,7 +11463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>719</v>
       </c>
@@ -11067,7 +11474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>720</v>
       </c>
@@ -11078,7 +11485,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>721</v>
       </c>
@@ -11089,7 +11496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>722</v>
       </c>
@@ -11100,7 +11507,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>723</v>
       </c>
@@ -11111,7 +11518,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>724</v>
       </c>
@@ -11122,7 +11529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>725</v>
       </c>
@@ -11133,7 +11540,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>726</v>
       </c>
@@ -11144,7 +11551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>727</v>
       </c>
@@ -11155,7 +11562,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>728</v>
       </c>
@@ -11166,7 +11573,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>729</v>
       </c>
@@ -11177,7 +11584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>730</v>
       </c>
@@ -11188,7 +11595,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>731</v>
       </c>
@@ -11199,7 +11606,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>732</v>
       </c>
@@ -11210,7 +11617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>733</v>
       </c>
@@ -11221,7 +11628,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>734</v>
       </c>
@@ -11232,7 +11639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>735</v>
       </c>
@@ -11243,7 +11650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>736</v>
       </c>
@@ -11254,7 +11661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>737</v>
       </c>
@@ -11265,7 +11672,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>738</v>
       </c>
@@ -11276,7 +11683,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>739</v>
       </c>
@@ -11287,7 +11694,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>740</v>
       </c>
@@ -11298,7 +11705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>741</v>
       </c>
@@ -11309,7 +11716,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>742</v>
       </c>
@@ -11320,7 +11727,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>743</v>
       </c>
@@ -11331,7 +11738,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>744</v>
       </c>
@@ -11342,7 +11749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>745</v>
       </c>
@@ -11353,7 +11760,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>746</v>
       </c>
@@ -11364,7 +11771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>747</v>
       </c>
@@ -11375,7 +11782,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>748</v>
       </c>
@@ -11386,7 +11793,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>749</v>
       </c>
@@ -11397,7 +11804,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>750</v>
       </c>
@@ -11408,7 +11815,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>751</v>
       </c>
@@ -11419,7 +11826,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>752</v>
       </c>
@@ -11430,7 +11837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>753</v>
       </c>
@@ -11441,7 +11848,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>754</v>
       </c>
@@ -11452,7 +11859,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>755</v>
       </c>
@@ -11463,7 +11870,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>756</v>
       </c>
@@ -11474,7 +11881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>757</v>
       </c>
@@ -11485,7 +11892,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>758</v>
       </c>
@@ -11496,7 +11903,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>759</v>
       </c>
@@ -11507,7 +11914,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>760</v>
       </c>
@@ -11518,7 +11925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>761</v>
       </c>
@@ -11529,7 +11936,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>762</v>
       </c>
@@ -11540,7 +11947,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>763</v>
       </c>
@@ -11551,7 +11958,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>764</v>
       </c>
@@ -11562,7 +11969,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>765</v>
       </c>
@@ -11573,7 +11980,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>766</v>
       </c>
@@ -11584,7 +11991,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>767</v>
       </c>
@@ -11595,7 +12002,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>768</v>
       </c>
@@ -11606,7 +12013,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>769</v>
       </c>
@@ -11617,7 +12024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>770</v>
       </c>
@@ -11628,7 +12035,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>771</v>
       </c>
@@ -11639,7 +12046,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>772</v>
       </c>
@@ -11650,7 +12057,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>773</v>
       </c>
@@ -11661,7 +12068,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>774</v>
       </c>
@@ -11672,7 +12079,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>775</v>
       </c>
@@ -11683,7 +12090,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>776</v>
       </c>
@@ -11694,7 +12101,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>777</v>
       </c>
@@ -11705,7 +12112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>778</v>
       </c>
@@ -11716,7 +12123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>779</v>
       </c>
@@ -11727,7 +12134,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>780</v>
       </c>
@@ -11738,7 +12145,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>781</v>
       </c>
@@ -11749,7 +12156,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>782</v>
       </c>
@@ -11760,7 +12167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>783</v>
       </c>
@@ -11771,7 +12178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>784</v>
       </c>
@@ -11782,7 +12189,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>785</v>
       </c>
@@ -11793,7 +12200,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>786</v>
       </c>
@@ -11804,7 +12211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>787</v>
       </c>
@@ -11815,7 +12222,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>788</v>
       </c>
@@ -11826,7 +12233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>789</v>
       </c>
@@ -11837,7 +12244,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>790</v>
       </c>
@@ -11848,7 +12255,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>791</v>
       </c>
@@ -11859,7 +12266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>792</v>
       </c>
@@ -11870,7 +12277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>793</v>
       </c>
@@ -11881,7 +12288,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>794</v>
       </c>
@@ -11892,7 +12299,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>795</v>
       </c>
@@ -11903,7 +12310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>796</v>
       </c>
@@ -11914,7 +12321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>797</v>
       </c>
@@ -11925,7 +12332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>798</v>
       </c>
@@ -11936,7 +12343,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>799</v>
       </c>
@@ -11947,7 +12354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>800</v>
       </c>
@@ -11958,7 +12365,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>801</v>
       </c>
